--- a/timetable_auto_manage.xlsx
+++ b/timetable_auto_manage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c860ec32ae97295/Documents/timetable generator/Time-table-generator-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_05E269401DA1CAAE7BE193D21ACCD6F96F80EB73" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60514938-A3FD-4F43-92FC-92A66BE44DF2}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_05E269401DA1CAAE7BE193D21ACCD6F96F80EB73" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE7CF93A-9F59-4700-B9DE-332CD30CB969}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,6 +238,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1095,13 +1099,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1127,213 +1133,287 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1342,245 +1422,365 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1982,7 +2182,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="A1:J20"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2284,7 +2484,6 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
